--- a/10_MultipleActions/Default.xlsx
+++ b/10_MultipleActions/Default.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
   <si>
     <t>Denver</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>Paris</t>
-  </si>
-  <si>
-    <t>Los Angeles</t>
   </si>
   <si>
     <t>p_FlightTo</t>
@@ -197,7 +194,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -211,6 +208,26 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -233,7 +250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
@@ -241,7 +258,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -543,18 +563,15 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:A1048576"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="2" width="8.8984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.41796875" style="1" customWidth="1"/>
-    <col min="4" max="16382" width="8.8984375" style="1" customWidth="1"/>
-    <col min="16383" max="16384" width="9.078125" style="1" customWidth="1"/>
+    <col min="1" max="16384" width="8.8984375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1"/>
+    <row r="1" ht="14.95" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -565,30 +582,29 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.56640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.38671875" style="1" customWidth="1"/>
-    <col min="5" max="16383" width="8.8984375" style="1" customWidth="1"/>
-    <col min="16384" max="16384" width="9.078125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.4375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.91796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.31640625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.8984375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.95" customFormat="1">
-      <c r="A1" t="s">
+    <row r="1" ht="14.95" s="4" customFormat="1">
+      <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -597,13 +613,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>11</v>
+      <c r="D2" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -611,12 +627,12 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="6"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
@@ -628,19 +644,19 @@
       <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="6"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -655,12 +671,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.1"/>
+  <sheetFormatPr defaultRowHeight="14.95"/>
   <cols>
-    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+    <col min="1" max="16384" width="8.8984375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.95" customFormat="1"/>
+    <row r="1" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
